--- a/Python Online Checklist.xlsx
+++ b/Python Online Checklist.xlsx
@@ -610,16 +610,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -647,6 +637,16 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -979,19 +979,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -1042,293 +1042,289 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="39">
+        <v>1</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="40">
+        <v>1</v>
+      </c>
+      <c r="G4" s="40">
         <v>20</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15">
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="51" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="45">
-        <v>1</v>
-      </c>
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="39">
+        <v>1</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="46">
-        <v>1</v>
-      </c>
-      <c r="G5" s="46">
+      <c r="F5" s="40">
+        <v>1</v>
+      </c>
+      <c r="G5" s="40">
         <v>30</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50">
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44">
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
-        <v>1</v>
-      </c>
-      <c r="B6" s="45" t="s">
+    <row r="6" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="39">
+        <v>1</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="45">
-        <v>1</v>
-      </c>
-      <c r="G6" s="45">
+      <c r="F6" s="39">
+        <v>1</v>
+      </c>
+      <c r="G6" s="39">
         <v>60</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="39">
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="51" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
-        <v>1</v>
-      </c>
-      <c r="B7" s="46" t="s">
+    <row r="7" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="39">
+        <v>1</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="46">
-        <v>1</v>
-      </c>
-      <c r="G7" s="46">
+      <c r="F7" s="40">
+        <v>1</v>
+      </c>
+      <c r="G7" s="40">
         <v>30</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50">
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44">
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="51" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
-        <v>1</v>
-      </c>
-      <c r="B8" s="46" t="s">
+    <row r="8" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="39">
+        <v>1</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="40">
         <v>2</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="40">
         <v>45</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50">
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44">
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="51" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="45">
-        <v>1</v>
-      </c>
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="39">
+        <v>1</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="46">
-        <v>1</v>
-      </c>
-      <c r="G9" s="46">
+      <c r="F9" s="40">
+        <v>1</v>
+      </c>
+      <c r="G9" s="40">
         <v>20</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50">
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="51" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="52">
-        <v>1</v>
-      </c>
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="46">
+        <v>1</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="53">
-        <v>1</v>
-      </c>
-      <c r="G10" s="53">
+      <c r="F10" s="47">
+        <v>1</v>
+      </c>
+      <c r="G10" s="47">
         <v>40</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55">
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="51" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="45">
-        <v>1</v>
-      </c>
-      <c r="B11" s="46" t="s">
+    <row r="11" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="39">
+        <v>1</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="46">
-        <v>1</v>
-      </c>
-      <c r="G11" s="46">
+      <c r="F11" s="40">
+        <v>1</v>
+      </c>
+      <c r="G11" s="40">
         <v>30</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50">
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44">
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="51" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="45">
-        <v>1</v>
-      </c>
-      <c r="B12" s="46" t="s">
+    <row r="12" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="39">
+        <v>1</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="46">
-        <v>1</v>
-      </c>
-      <c r="G12" s="46">
+      <c r="F12" s="40">
+        <v>1</v>
+      </c>
+      <c r="G12" s="40">
         <v>60</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50">
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44">
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="51" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="45">
-        <v>1</v>
-      </c>
-      <c r="B13" s="46" t="s">
+    <row r="13" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="39">
+        <v>1</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="46">
-        <v>1</v>
-      </c>
-      <c r="G13" s="46">
+      <c r="F13" s="40">
+        <v>1</v>
+      </c>
+      <c r="G13" s="40">
         <v>60</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>1</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="39">
+        <v>1</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="F14" s="40">
+        <v>1</v>
+      </c>
+      <c r="G14" s="40">
         <v>60</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="J14" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="39">
+        <v>1</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="12">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="F15" s="40">
+        <v>1</v>
+      </c>
+      <c r="G15" s="40">
         <v>60</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15">
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44">
         <v>1.25</v>
       </c>
     </row>
@@ -3180,15 +3176,15 @@
       <c r="B93" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="42" t="s">
+      <c r="C93" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="44"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="55"/>
       <c r="J93" s="37"/>
     </row>
     <row r="94" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">

--- a/Python Online Checklist.xlsx
+++ b/Python Online Checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +467,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF37FF91"/>
         <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -524,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -647,6 +653,17 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1328,99 +1345,99 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>1</v>
-      </c>
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="39">
+        <v>1</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="12">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
+      <c r="G16" s="40">
         <v>20</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15">
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44">
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
-        <v>1</v>
-      </c>
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="46">
+        <v>1</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="F17" s="47">
+        <v>1</v>
+      </c>
+      <c r="G17" s="47">
         <v>60</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>1</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="39">
+        <v>1</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="F18" s="40">
+        <v>1</v>
+      </c>
+      <c r="G18" s="40">
         <v>30</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15">
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44">
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
-        <v>1</v>
-      </c>
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="46">
+        <v>1</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
+      <c r="F19" s="47">
+        <v>1</v>
+      </c>
+      <c r="G19" s="47">
         <v>30</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21">
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49">
         <v>0.75</v>
       </c>
     </row>
@@ -1560,78 +1577,78 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="39">
         <v>2</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="12">
-        <v>1</v>
-      </c>
-      <c r="G26" s="12">
+      <c r="F26" s="40">
+        <v>1</v>
+      </c>
+      <c r="G26" s="40">
         <v>10</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44">
         <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="39">
         <v>2</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="12">
-        <v>1</v>
-      </c>
-      <c r="G27" s="12">
+      <c r="F27" s="40">
+        <v>1</v>
+      </c>
+      <c r="G27" s="40">
         <v>10</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15">
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44">
         <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+      <c r="A28" s="46">
         <v>2</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20" t="s">
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="19">
-        <v>1</v>
-      </c>
-      <c r="G28" s="19">
+      <c r="F28" s="47">
+        <v>1</v>
+      </c>
+      <c r="G28" s="47">
         <v>45</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21">
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49">
         <v>1.25</v>
       </c>
     </row>
@@ -1770,129 +1787,129 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+    <row r="35" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="39">
         <v>3</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="12">
-        <v>1</v>
-      </c>
-      <c r="G35" s="12">
+      <c r="F35" s="40">
+        <v>1</v>
+      </c>
+      <c r="G35" s="40">
         <v>30</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15">
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="18">
+    <row r="36" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="46">
         <v>3</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20" t="s">
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="47">
         <v>2</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="47">
         <v>60</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21">
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="49">
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+    <row r="37" spans="1:10" s="60" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="56">
         <v>3</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14" t="s">
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="57">
         <v>3</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="57">
         <v>120</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15">
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="59">
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+    <row r="38" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="39">
         <v>3</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="40">
         <v>2</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="40">
         <v>30</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="39">
         <v>3</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="43"/>
+      <c r="D39" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="12">
-        <v>1</v>
-      </c>
-      <c r="G39" s="12">
+      <c r="F39" s="40">
+        <v>1</v>
+      </c>
+      <c r="G39" s="40">
         <v>30</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15">
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44">
         <v>1</v>
       </c>
     </row>
